--- a/Координаты пунктов 100 охранных зон пунктов ГГС.xlsx
+++ b/Координаты пунктов 100 охранных зон пунктов ГГС.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="879">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1346" uniqueCount="878">
   <si>
     <t>Район</t>
   </si>
@@ -2649,9 +2649,6 @@
   </si>
   <si>
     <t>2191837.32</t>
-  </si>
-  <si>
-    <t>11111</t>
   </si>
 </sst>
 </file>
@@ -3031,7 +3028,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K98"/>
+  <dimension ref="A2:K98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -3054,11 +3051,6 @@
     <col min="49" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
-        <v>878</v>
-      </c>
-    </row>
     <row r="2" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>92</v>
